--- a/data/output/FV2504_FV2410/ORDERS/17118.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17118.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="235">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="235">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -850,6 +850,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U96" totalsRowShown="0">
+  <autoFilter ref="A1:U96"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,7 +1169,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5568,5 +5601,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17118.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17118.xlsx
@@ -1119,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1142,6 +1142,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1150,6 +1153,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1592,7 +1598,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1956,7 +1962,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2102,7 +2108,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2306,7 +2312,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2508,7 +2514,7 @@
         <v>206</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2810,7 +2816,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3126,7 +3132,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3300,52 +3306,52 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3702,7 +3708,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4014,7 +4020,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4312,7 +4318,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4610,22 +4616,22 @@
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M61" s="5"/>
@@ -4643,27 +4649,27 @@
       <c r="A62" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M62" s="5"/>
@@ -4681,33 +4687,33 @@
       <c r="A63" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M63" s="5"/>
@@ -4725,31 +4731,31 @@
       <c r="A64" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M64" s="5"/>
@@ -4767,27 +4773,27 @@
       <c r="A65" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M65" s="5"/>
@@ -4805,29 +4811,29 @@
       <c r="A66" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M66" s="5"/>
@@ -4845,33 +4851,33 @@
       <c r="A67" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L67" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M67" s="5"/>
@@ -4889,33 +4895,33 @@
       <c r="A68" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>217</v>
       </c>
       <c r="M68" s="5"/>
@@ -4943,25 +4949,25 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11" t="s">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V69" s="11" t="s">
+      <c r="V69" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4979,29 +4985,29 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11" t="s">
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11" t="s">
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="V70" s="11"/>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5017,33 +5023,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="13" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5061,33 +5067,33 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5103,29 +5109,29 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="V73" s="11"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5141,31 +5147,31 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11" t="s">
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="V74" s="11"/>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5181,33 +5187,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U75" s="11" t="s">
+      <c r="U75" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="V75" s="11" t="s">
+      <c r="V75" s="13" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5225,35 +5231,35 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q76" s="11" t="s">
+      <c r="Q76" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R76" s="11" t="s">
+      <c r="R76" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U76" s="11" t="s">
+      <c r="U76" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V76" s="11"/>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
@@ -5276,7 +5282,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5398,52 +5404,52 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -5620,52 +5626,52 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K84" s="5"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P84" s="5"/>
+      <c r="P84" s="2"/>
       <c r="Q84" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V84" s="5"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -5842,22 +5848,22 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>201</v>
       </c>
       <c r="K88" s="6" t="s">
@@ -5866,19 +5872,19 @@
       <c r="L88" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>201</v>
       </c>
       <c r="V88" s="6" t="s">
@@ -6054,48 +6060,48 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="2"/>
       <c r="Q92" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6150,48 +6156,48 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="2"/>
       <c r="L94" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P94" s="5"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
